--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParameshwarA\Music\test\tnsand_with_print\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F6300-757F-4D08-82A1-C5D4F1C7D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C886BA8-5502-4191-B42E-4082BFBFF5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>screenshot_dir</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>google</t>
+  </si>
+  <si>
+    <t>ggogle</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +733,9 @@
       <c r="A2" t="s">
         <v>59</v>
       </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParameshwarA\Music\test\tnsand_with_print\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C886BA8-5502-4191-B42E-4082BFBFF5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228DCC9-2AF6-461A-AE52-4FE2C19D5DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>screenshot_dir</t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +736,9 @@
       <c r="B2" t="s">
         <v>60</v>
       </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
